--- a/tests/data/xlsx/xlsx_03_chartsheet.xlsx
+++ b/tests/data/xlsx/xlsx_03_chartsheet.xlsx
@@ -1,48 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceb/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1022E13D-0FE0-CB45-B272-CF15A7D5E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="1820" windowWidth="35400" windowHeight="24560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Duck Observations" sheetId="1" r:id="rId1"/>
-    <sheet name="Duck Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Duck Observations" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Duck Chart" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Year</t>
+    <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t>Freshwater Ducks</t>
+    <t xml:space="preserve">Freshwater Ducks</t>
   </si>
   <si>
-    <t>Saltwater Ducks</t>
+    <t xml:space="preserve">Saltwater Ducks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ducks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +95,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -62,63 +103,153 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr b="1" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
               <a:t>Wild Duck Observations by Year</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -138,16 +269,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Duck Observations'!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
@@ -167,8 +329,8 @@
                 <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -197,11 +359,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6344-2542-A51A-0C683EE98D64}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -218,16 +375,47 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Duck Observations'!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
@@ -247,8 +435,8 @@
                 <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -277,26 +465,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6344-2542-A51A-0C683EE98D64}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="29485164"/>
+        <c:axId val="91437964"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10"/>
+        <c:axId val="29485164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,110 +481,222 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Year</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91437964"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100"/>
+        <c:axId val="91437964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Number of Ducks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29485164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6070600"/>
-    <xdr:graphicFrame macro="">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:ext cx="9308520" cy="6069960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -417,46 +705,46 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -464,334 +752,325 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">B2+C2</f>
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">B3+C3</f>
+        <v>230</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">B4+C4</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">B5+C5</f>
+        <v>280</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">B6+C6</f>
+        <v>280</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">B7+C7</f>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="77" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>